--- a/Results/Classification/Control vs Neither/Classification Summary.xlsx
+++ b/Results/Classification/Control vs Neither/Classification Summary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model.nosync/Results/Classification/Control vs Neither/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC88FE-6D18-A449-8CD5-5113B6C87E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A41D22-1011-E840-97A7-1F20C0675DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="500" windowWidth="28040" windowHeight="16620" xr2:uid="{C10E933C-2909-FB49-BF45-6F75B4442D33}"/>
+    <workbookView xWindow="14360" yWindow="1580" windowWidth="28040" windowHeight="16620" xr2:uid="{C10E933C-2909-FB49-BF45-6F75B4442D33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Control</t>
   </si>
   <si>
     <t>Neither</t>
+  </si>
+  <si>
+    <t>100 Iterations</t>
+  </si>
+  <si>
+    <t>200 Iterations</t>
   </si>
 </sst>
 </file>
@@ -412,71 +418,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA646F2-6674-4044-B1BE-29976C13143D}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f>SUM(C4:E6)/87</f>
+        <v>0.51724137931034486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f>SUM(C10:E12)/87</f>
+        <v>0.50574712643678166</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
